--- a/output/1Y_P10_1VAL-D.xlsx
+++ b/output/1Y_P10_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>957.3134</v>
       </c>
-      <c r="G2" s="1">
-        <v>957.3134</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.113600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.4459</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.113600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E3" s="1">
+        <v>957.3134</v>
+      </c>
       <c r="F3" s="1">
         <v>1031.0554</v>
       </c>
-      <c r="G3" s="1">
-        <v>1988.3688</v>
-      </c>
       <c r="H3" s="1">
-        <v>19184.5774</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0585</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4459</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19184.5774</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0383</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E4" s="1">
+        <v>1988.3688</v>
+      </c>
       <c r="F4" s="1">
         <v>993.463</v>
       </c>
-      <c r="G4" s="1">
-        <v>2981.8318</v>
-      </c>
       <c r="H4" s="1">
-        <v>29858.5727</v>
+        <v>19910.5308</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.0609</v>
+        <v>19910.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0585</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29858.5727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E5" s="1">
+        <v>2981.8318</v>
+      </c>
       <c r="F5" s="1">
         <v>886.1477</v>
       </c>
-      <c r="G5" s="1">
-        <v>3867.9795</v>
-      </c>
       <c r="H5" s="1">
-        <v>43423.0987</v>
+        <v>33474.9383</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3413</v>
+        <v>33474.9383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.0609</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43423.0987</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.08939999999999999</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E6" s="1">
+        <v>3867.9795</v>
+      </c>
       <c r="F6" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G6" s="1">
-        <v>4766.1213</v>
-      </c>
       <c r="H6" s="1">
-        <v>52791.4658</v>
+        <v>42843.2885</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.4907</v>
+        <v>42843.2885</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.3413</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52791.4658</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0118</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E7" s="1">
+        <v>4766.1213</v>
+      </c>
       <c r="F7" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G7" s="1">
-        <v>5683.0141</v>
-      </c>
       <c r="H7" s="1">
-        <v>61659.5665</v>
+        <v>51711.4627</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.5578</v>
+        <v>51711.4627</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.4907</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61659.5665</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.018</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E8" s="1">
+        <v>5683.0141</v>
+      </c>
       <c r="F8" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G8" s="1">
-        <v>6543.1034</v>
-      </c>
       <c r="H8" s="1">
-        <v>75679.49679999999</v>
+        <v>65731.4461</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6983</v>
+        <v>65731.4461</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.5578</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75679.49679999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0561</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E9" s="1">
+        <v>6543.1034</v>
+      </c>
       <c r="F9" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G9" s="1">
-        <v>7355.4841</v>
-      </c>
       <c r="H9" s="1">
-        <v>90072.3158</v>
+        <v>80124.22689999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.8762</v>
+        <v>80124.22689999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.6983</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90072.3158</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0513</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E10" s="1">
+        <v>7355.4841</v>
+      </c>
       <c r="F10" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>8102.4439</v>
-      </c>
       <c r="H10" s="1">
-        <v>107909.969</v>
+        <v>97961.808</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>11.1078</v>
+        <v>97961.808</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.8762</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>107909.969</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.07829999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E11" s="1">
+        <v>8102.4439</v>
+      </c>
       <c r="F11" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G11" s="1">
-        <v>8853.527400000001</v>
-      </c>
       <c r="H11" s="1">
-        <v>117264.9702</v>
+        <v>107316.8701</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>11.2949</v>
+        <v>107316.8701</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.1078</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
-        <v>4375.3197</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-5624.6803</v>
+        <v>3971.9614</v>
       </c>
       <c r="O11" s="1">
-        <v>4375.3197</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>121640.2899</v>
+        <v>-6028.0386</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0316</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E12" s="1">
+        <v>8853.527400000001</v>
+      </c>
       <c r="F12" s="1">
-        <v>888.2616</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9741.789000000001</v>
+        <v>873.5628</v>
       </c>
       <c r="H12" s="1">
-        <v>132971.523</v>
+        <v>120847.1074</v>
       </c>
       <c r="I12" s="1">
-        <v>112187.6599</v>
+        <v>3971.9614</v>
       </c>
       <c r="J12" s="1">
-        <v>11.5161</v>
+        <v>124819.0688</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101985.9807</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.5192</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12187.6599</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2187.6599</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>135159.1829</v>
+        <v>-11985.9807</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0267</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E13" s="1">
+        <v>9727.090200000001</v>
+      </c>
       <c r="F13" s="1">
-        <v>858.159</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10599.948</v>
+        <v>843.9583</v>
       </c>
       <c r="H13" s="1">
-        <v>149760.3051</v>
+        <v>137428.2212</v>
       </c>
       <c r="I13" s="1">
-        <v>124375.3197</v>
+        <v>1985.9807</v>
       </c>
       <c r="J13" s="1">
-        <v>11.7336</v>
+        <v>139414.2019</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113971.9614</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.717</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12187.6599</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>149760.3051</v>
+        <v>-11985.9807</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0317</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E14" s="1">
+        <v>10571.0485</v>
+      </c>
       <c r="F14" s="1">
-        <v>-10599.948</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-9727.090200000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>147097.1975</v>
       </c>
       <c r="I14" s="1">
-        <v>124375.3197</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>11.7336</v>
+        <v>147097.1975</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113971.9614</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.7815</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>147499.3362</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>147499.3362</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>147499.3362</v>
+        <v>135353.4329</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0767</v>
+        <v>-0.0155</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>10.4459</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>957.3134</v>
       </c>
       <c r="G2" s="1">
-        <v>957.3134</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.113600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.4459</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.113600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>9.6988</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>957.3134</v>
       </c>
       <c r="F3" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G3" s="1">
-        <v>1988.3688</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19184.5774</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0585</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4459</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19184.5774</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0383</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>10.0658</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1988.3688</v>
       </c>
       <c r="F4" s="1">
         <v>993.463</v>
       </c>
       <c r="G4" s="1">
-        <v>2981.8318</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29858.5727</v>
+        <v>19910.5308</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.0609</v>
+        <v>19910.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0585</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29858.5727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>11.2848</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2981.8318</v>
       </c>
       <c r="F5" s="1">
         <v>581.2299</v>
       </c>
       <c r="G5" s="1">
-        <v>3563.0617</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>33474.9383</v>
       </c>
       <c r="I5" s="1">
-        <v>36559.0636</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.2606</v>
+        <v>33474.9383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26559.0636</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>8.907</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-6559.0636</v>
       </c>
-      <c r="O5" s="1">
-        <v>3440.9364</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43440.9364</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.08989999999999999</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>11.1341</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3563.0617</v>
       </c>
       <c r="F6" s="1">
         <v>951.0403</v>
       </c>
       <c r="G6" s="1">
-        <v>4514.1021</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39465.897</v>
       </c>
       <c r="I6" s="1">
-        <v>47148.0416</v>
+        <v>3440.9364</v>
       </c>
       <c r="J6" s="1">
-        <v>10.4446</v>
+        <v>42906.8334</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37148.0416</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.4259</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10588.978</v>
       </c>
-      <c r="O6" s="1">
-        <v>2851.9584</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52851.9584</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.011</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>10.9064</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4514.1021</v>
       </c>
       <c r="F7" s="1">
         <v>1015.9538</v>
       </c>
       <c r="G7" s="1">
-        <v>5530.0559</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48977.1045</v>
       </c>
       <c r="I7" s="1">
-        <v>58228.4401</v>
+        <v>2851.9584</v>
       </c>
       <c r="J7" s="1">
-        <v>10.5294</v>
+        <v>51829.0628</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48228.4401</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.6839</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11080.3985</v>
       </c>
-      <c r="O7" s="1">
-        <v>1771.5599</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61771.5599</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0172</v>
+        <v>-0.0204</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>11.6267</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5530.0559</v>
       </c>
       <c r="F8" s="1">
         <v>522.0092</v>
       </c>
       <c r="G8" s="1">
-        <v>6052.0651</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63962.285</v>
       </c>
       <c r="I8" s="1">
-        <v>64297.6845</v>
+        <v>1771.5599</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6241</v>
+        <v>65733.8449</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54297.6845</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.8187</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6069.2443</v>
       </c>
-      <c r="O8" s="1">
-        <v>5702.3155</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75702.3155</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0548</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>12.3095</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6052.0651</v>
       </c>
       <c r="F9" s="1">
         <v>480.8937</v>
       </c>
       <c r="G9" s="1">
-        <v>6532.9588</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74111.1678</v>
       </c>
       <c r="I9" s="1">
-        <v>70217.2458</v>
+        <v>5702.3155</v>
       </c>
       <c r="J9" s="1">
-        <v>10.7482</v>
+        <v>79813.48330000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60217.2458</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.9499</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5919.5613</v>
       </c>
-      <c r="O9" s="1">
-        <v>9782.754199999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89782.7542</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0476</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.3876</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>6532.9588</v>
       </c>
       <c r="F10" s="1">
         <v>224.7112</v>
       </c>
       <c r="G10" s="1">
-        <v>6757.67</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>87007.2516</v>
       </c>
       <c r="I10" s="1">
-        <v>73225.5892</v>
+        <v>9782.754199999999</v>
       </c>
       <c r="J10" s="1">
-        <v>10.8359</v>
+        <v>96790.0058</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>63225.5892</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.677899999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3008.3434</v>
       </c>
-      <c r="O10" s="1">
-        <v>16774.4108</v>
-      </c>
-      <c r="P10" s="1">
-        <v>106774.4108</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0701</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.3141</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6757.67</v>
       </c>
       <c r="F11" s="1">
         <v>792.3489</v>
       </c>
       <c r="G11" s="1">
-        <v>7550.0189</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>89505.3386</v>
       </c>
       <c r="I11" s="1">
-        <v>83775.0019</v>
+        <v>16774.4108</v>
       </c>
       <c r="J11" s="1">
-        <v>11.096</v>
+        <v>106279.7494</v>
       </c>
       <c r="K11" s="1">
+        <v>73775.0019</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10.9172</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
-        <v>3649.1418</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-6900.271</v>
+        <v>3527.7977</v>
       </c>
       <c r="O11" s="1">
-        <v>19874.1399</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>119874.1399</v>
+        <v>-7021.615</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0265</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.7208</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7550.0189</v>
       </c>
       <c r="F12" s="1">
         <v>508.8253</v>
       </c>
       <c r="G12" s="1">
-        <v>8058.8442</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103054.7376</v>
       </c>
       <c r="I12" s="1">
-        <v>90756.4926</v>
+        <v>19752.7958</v>
       </c>
       <c r="J12" s="1">
-        <v>11.2617</v>
+        <v>122807.5335</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>80756.4926</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.6962</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6981.4907</v>
       </c>
-      <c r="O12" s="1">
-        <v>22892.6491</v>
-      </c>
-      <c r="P12" s="1">
-        <v>132892.6491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0232</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.2021</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8058.8442</v>
       </c>
       <c r="F13" s="1">
         <v>434.6865</v>
       </c>
       <c r="G13" s="1">
-        <v>8493.5308</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113858.5746</v>
       </c>
       <c r="I13" s="1">
-        <v>96929.9544</v>
+        <v>22771.3051</v>
       </c>
       <c r="J13" s="1">
-        <v>11.4122</v>
+        <v>136629.8797</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>86929.9544</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.7869</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6173.4618</v>
       </c>
-      <c r="O13" s="1">
-        <v>26719.1873</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146719.1873</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0268</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.9876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8493.5308</v>
       </c>
       <c r="F14" s="1">
         <v>-8493.5308</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118188.3299</v>
       </c>
       <c r="I14" s="1">
-        <v>96929.9544</v>
+        <v>26597.8433</v>
       </c>
       <c r="J14" s="1">
-        <v>11.4122</v>
+        <v>144786.1732</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>86929.9544</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.2348</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118188.3299</v>
       </c>
-      <c r="O14" s="1">
-        <v>144907.5172</v>
-      </c>
-      <c r="P14" s="1">
-        <v>144907.5172</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.07539999999999999</v>
+        <v>-0.0126</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>10.4459</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>957.3134</v>
       </c>
       <c r="G2" s="1">
-        <v>957.3134</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.113600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.4459</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.113600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>9.6988</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>957.3134</v>
       </c>
       <c r="F3" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G3" s="1">
-        <v>1988.3688</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19184.5774</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0585</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4459</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19184.5774</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0383</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>10.0658</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1988.3688</v>
       </c>
       <c r="F4" s="1">
         <v>993.463</v>
       </c>
       <c r="G4" s="1">
-        <v>2981.8318</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29858.5727</v>
+        <v>19910.5308</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.0609</v>
+        <v>19910.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0585</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29858.5727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>11.2848</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2981.8318</v>
       </c>
       <c r="F5" s="1">
         <v>608.0421</v>
       </c>
       <c r="G5" s="1">
-        <v>3589.8739</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>33474.9383</v>
       </c>
       <c r="I5" s="1">
-        <v>36861.6334</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.2682</v>
+        <v>33474.9383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26861.6334</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.0084</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-6861.6334</v>
       </c>
-      <c r="O5" s="1">
-        <v>3138.3666</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43439.3678</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0898</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>11.1341</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3589.8739</v>
       </c>
       <c r="F6" s="1">
         <v>969.5955</v>
       </c>
       <c r="G6" s="1">
-        <v>4559.4693</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>39762.8792</v>
       </c>
       <c r="I6" s="1">
-        <v>47657.2062</v>
+        <v>3138.3666</v>
       </c>
       <c r="J6" s="1">
-        <v>10.4524</v>
+        <v>42901.2457</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37657.2062</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.4898</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10795.5728</v>
       </c>
-      <c r="O6" s="1">
-        <v>2342.7938</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52845.3001</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0111</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>10.9064</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4559.4693</v>
       </c>
       <c r="F7" s="1">
         <v>1040.1748</v>
       </c>
       <c r="G7" s="1">
-        <v>5599.6441</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>49469.3305</v>
       </c>
       <c r="I7" s="1">
-        <v>59001.7683</v>
+        <v>2342.7938</v>
       </c>
       <c r="J7" s="1">
-        <v>10.5367</v>
+        <v>51812.1243</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49001.7683</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.7473</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11344.5622</v>
       </c>
-      <c r="O7" s="1">
-        <v>998.2317</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61753.2504</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0174</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>11.6267</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5599.6441</v>
       </c>
       <c r="F8" s="1">
         <v>543.9622000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6143.6063</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64767.1638</v>
       </c>
       <c r="I8" s="1">
-        <v>65326.2537</v>
+        <v>998.2317</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6332</v>
+        <v>65765.3955</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55326.2537</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.8803</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6324.4854</v>
       </c>
-      <c r="O8" s="1">
-        <v>4673.7463</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75732.5401</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0555</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>12.3095</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6143.6063</v>
       </c>
       <c r="F9" s="1">
         <v>504.8297</v>
       </c>
       <c r="G9" s="1">
-        <v>6648.436</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75232.14569999999</v>
       </c>
       <c r="I9" s="1">
-        <v>71540.45450000001</v>
+        <v>4673.7463</v>
       </c>
       <c r="J9" s="1">
-        <v>10.7605</v>
+        <v>79905.8919</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61540.4545</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.017</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6214.2008</v>
       </c>
-      <c r="O9" s="1">
-        <v>8459.5455</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89873.6333</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0483</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.3876</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>6648.436</v>
       </c>
       <c r="F10" s="1">
         <v>245.976</v>
       </c>
       <c r="G10" s="1">
-        <v>6894.412</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>88545.2003</v>
       </c>
       <c r="I10" s="1">
-        <v>74833.48330000001</v>
+        <v>8459.5455</v>
       </c>
       <c r="J10" s="1">
-        <v>10.8542</v>
+        <v>97004.7458</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>64833.4833</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.7517</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3293.0287</v>
       </c>
-      <c r="O10" s="1">
-        <v>15166.5167</v>
-      </c>
-      <c r="P10" s="1">
-        <v>106987.675</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0712</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.3141</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6894.412</v>
       </c>
       <c r="F11" s="1">
         <v>827.7672</v>
       </c>
       <c r="G11" s="1">
-        <v>7722.1792</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>91316.48729999999</v>
       </c>
       <c r="I11" s="1">
-        <v>85854.4587</v>
+        <v>15166.5167</v>
       </c>
       <c r="J11" s="1">
-        <v>11.1179</v>
+        <v>106483.0041</v>
       </c>
       <c r="K11" s="1">
+        <v>75854.4587</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.0023</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
-        <v>3722.9825</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7297.993</v>
+        <v>3590.1554</v>
       </c>
       <c r="O11" s="1">
-        <v>17868.5238</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>120148.7878</v>
+        <v>-7430.82</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.027</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.7208</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7722.1792</v>
       </c>
       <c r="F12" s="1">
         <v>541.1886</v>
       </c>
       <c r="G12" s="1">
-        <v>8263.3678</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105404.6578</v>
       </c>
       <c r="I12" s="1">
-        <v>93279.999</v>
+        <v>17735.6967</v>
       </c>
       <c r="J12" s="1">
-        <v>11.2884</v>
+        <v>123140.3545</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>83279.999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.7845</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7425.5402</v>
       </c>
-      <c r="O12" s="1">
-        <v>20442.9835</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133234.6489</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0237</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.2021</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8263.3678</v>
       </c>
       <c r="F13" s="1">
         <v>467.6721</v>
       </c>
       <c r="G13" s="1">
-        <v>8731.0399</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116748.1659</v>
       </c>
       <c r="I13" s="1">
-        <v>99921.92419999999</v>
+        <v>20310.1565</v>
       </c>
       <c r="J13" s="1">
-        <v>11.4444</v>
+        <v>137058.3224</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>89921.92419999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.882</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6641.9252</v>
       </c>
-      <c r="O13" s="1">
-        <v>23801.0583</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147156.682</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0274</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.9876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8731.0399</v>
       </c>
       <c r="F14" s="1">
         <v>-8731.0399</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121493.2929</v>
       </c>
       <c r="I14" s="1">
-        <v>99921.92419999999</v>
+        <v>23668.2312</v>
       </c>
       <c r="J14" s="1">
-        <v>11.4444</v>
+        <v>145161.5242</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>89921.92419999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.2991</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121493.2929</v>
       </c>
-      <c r="O14" s="1">
-        <v>145294.3512</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145294.3512</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0755</v>
+        <v>-0.0129</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>10.4459</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>957.3134</v>
       </c>
       <c r="G2" s="1">
-        <v>957.3134</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.113600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.4459</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.113600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>9.6988</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>957.3134</v>
       </c>
       <c r="F3" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G3" s="1">
-        <v>1988.3688</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19184.5774</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0585</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4459</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19184.5774</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0383</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>10.0658</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1988.3688</v>
       </c>
       <c r="F4" s="1">
         <v>993.463</v>
       </c>
       <c r="G4" s="1">
-        <v>2981.8318</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29858.5727</v>
+        <v>19910.5308</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.0609</v>
+        <v>19910.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0585</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29858.5727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>11.2848</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2981.8318</v>
       </c>
       <c r="F5" s="1">
         <v>635.0331</v>
       </c>
       <c r="G5" s="1">
-        <v>3616.8649</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>33474.9383</v>
       </c>
       <c r="I5" s="1">
-        <v>37166.2211</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.2758</v>
+        <v>33474.9383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27166.2211</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.1106</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7166.2211</v>
       </c>
-      <c r="O5" s="1">
-        <v>2833.7789</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43437.7889</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0898</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>11.1341</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3616.8649</v>
       </c>
       <c r="F6" s="1">
         <v>988.4266</v>
       </c>
       <c r="G6" s="1">
-        <v>4605.2914</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40061.842</v>
       </c>
       <c r="I6" s="1">
-        <v>48171.4615</v>
+        <v>2833.7789</v>
       </c>
       <c r="J6" s="1">
-        <v>10.46</v>
+        <v>42895.6208</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38171.4615</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.5537</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11005.2404</v>
       </c>
-      <c r="O6" s="1">
-        <v>1828.5385</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52838.5886</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0112</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>10.9064</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4605.2914</v>
       </c>
       <c r="F7" s="1">
         <v>1064.873</v>
       </c>
       <c r="G7" s="1">
-        <v>5670.1645</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>49966.4911</v>
       </c>
       <c r="I7" s="1">
-        <v>59785.3928</v>
+        <v>1828.5385</v>
       </c>
       <c r="J7" s="1">
-        <v>10.5439</v>
+        <v>51795.0296</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49785.3928</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.8105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11613.9314</v>
       </c>
-      <c r="O7" s="1">
-        <v>214.6072</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61734.7578</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0176</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>11.6267</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5670.1645</v>
       </c>
       <c r="F8" s="1">
         <v>566.519</v>
       </c>
       <c r="G8" s="1">
-        <v>6236.6835</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65582.8235</v>
       </c>
       <c r="I8" s="1">
-        <v>66372.13920000001</v>
+        <v>214.6072</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6422</v>
+        <v>65797.43060000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56372.1392</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.9419</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6586.7464</v>
       </c>
-      <c r="O8" s="1">
-        <v>3627.8608</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75763.2129</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0562</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>12.3095</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>6236.6835</v>
       </c>
       <c r="F9" s="1">
         <v>529.5596</v>
       </c>
       <c r="G9" s="1">
-        <v>6766.243</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76371.93120000001</v>
       </c>
       <c r="I9" s="1">
-        <v>72890.7525</v>
+        <v>3627.8608</v>
       </c>
       <c r="J9" s="1">
-        <v>10.7727</v>
+        <v>79999.792</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62890.7525</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.084</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6518.6133</v>
       </c>
-      <c r="O9" s="1">
-        <v>7109.2475</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89965.9531</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.049</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.3876</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>6766.243</v>
       </c>
       <c r="F10" s="1">
         <v>268.1364</v>
       </c>
       <c r="G10" s="1">
-        <v>7034.3795</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>90114.1779</v>
       </c>
       <c r="I10" s="1">
-        <v>76480.45600000001</v>
+        <v>7109.2475</v>
       </c>
       <c r="J10" s="1">
-        <v>10.8724</v>
+        <v>97223.42539999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>66480.45600000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.8253</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3589.7035</v>
       </c>
-      <c r="O10" s="1">
-        <v>13519.544</v>
-      </c>
-      <c r="P10" s="1">
-        <v>107204.8167</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.07240000000000001</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.3141</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>7034.3795</v>
       </c>
       <c r="F11" s="1">
         <v>864.6107</v>
       </c>
       <c r="G11" s="1">
-        <v>7898.9902</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>93170.3561</v>
       </c>
       <c r="I11" s="1">
-        <v>87991.9699</v>
+        <v>13519.544</v>
       </c>
       <c r="J11" s="1">
-        <v>11.1396</v>
+        <v>106689.9001</v>
       </c>
       <c r="K11" s="1">
+        <v>77991.9699</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.0873</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
-        <v>3798.5649</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7712.949</v>
+        <v>3653.7712</v>
       </c>
       <c r="O11" s="1">
-        <v>15806.595</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>120428.7204</v>
+        <v>-7857.7427</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0275</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.7208</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7898.9902</v>
       </c>
       <c r="F12" s="1">
         <v>575.1297</v>
       </c>
       <c r="G12" s="1">
-        <v>8474.1199</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107818.0569</v>
       </c>
       <c r="I12" s="1">
-        <v>95883.2089</v>
+        <v>15661.8013</v>
       </c>
       <c r="J12" s="1">
-        <v>11.3148</v>
+        <v>123479.8582</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>85883.2089</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.8727</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7891.239</v>
       </c>
-      <c r="O12" s="1">
-        <v>17915.356</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133583.7026</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0242</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.2021</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8474.1199</v>
       </c>
       <c r="F13" s="1">
         <v>502.4826</v>
       </c>
       <c r="G13" s="1">
-        <v>8976.602500000001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119725.7553</v>
       </c>
       <c r="I13" s="1">
-        <v>103019.5168</v>
+        <v>17770.5623</v>
       </c>
       <c r="J13" s="1">
-        <v>11.4764</v>
+        <v>137496.3176</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>93019.5168</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.9769</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7136.3078</v>
       </c>
-      <c r="O13" s="1">
-        <v>20779.0481</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147604.0783</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.028</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>13.9876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8976.602500000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8976.602500000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124910.3208</v>
       </c>
       <c r="I14" s="1">
-        <v>103019.5168</v>
+        <v>20634.2545</v>
       </c>
       <c r="J14" s="1">
-        <v>11.4764</v>
+        <v>145544.5753</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>93019.5168</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.3624</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124910.3208</v>
       </c>
-      <c r="O14" s="1">
-        <v>145689.369</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145689.369</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0756</v>
+        <v>-0.0132</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>10.4459</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>957.3134</v>
       </c>
       <c r="G2" s="1">
-        <v>957.3134</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.113600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.4459</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.113600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>9.6988</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>957.3134</v>
       </c>
       <c r="F3" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G3" s="1">
-        <v>1988.3688</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19184.5774</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.0585</v>
+        <v>9236.542600000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.4459</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19184.5774</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0383</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>10.0658</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1988.3688</v>
       </c>
       <c r="F4" s="1">
         <v>993.463</v>
       </c>
       <c r="G4" s="1">
-        <v>2981.8318</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29858.5727</v>
+        <v>19910.5308</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.0609</v>
+        <v>19910.5308</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.0585</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29858.5727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>11.2848</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2981.8318</v>
       </c>
       <c r="F5" s="1">
         <v>662.2035</v>
       </c>
       <c r="G5" s="1">
-        <v>3644.0353</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>33474.9383</v>
       </c>
       <c r="I5" s="1">
-        <v>37472.8343</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.2833</v>
+        <v>33474.9383</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27472.8343</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.2134</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7472.8343</v>
       </c>
-      <c r="O5" s="1">
-        <v>2527.1657</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43436.1994</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0898</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>11.1341</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3644.0353</v>
       </c>
       <c r="F6" s="1">
         <v>1007.5364</v>
       </c>
       <c r="G6" s="1">
-        <v>4651.5717</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>40362.7929</v>
       </c>
       <c r="I6" s="1">
-        <v>48690.8456</v>
+        <v>2527.1657</v>
       </c>
       <c r="J6" s="1">
-        <v>10.4676</v>
+        <v>42889.9585</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38690.8456</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.6176</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11218.0113</v>
       </c>
-      <c r="O6" s="1">
-        <v>1309.1544</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52831.8237</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0113</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>10.9064</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4651.5717</v>
       </c>
       <c r="F7" s="1">
         <v>1036.9283</v>
       </c>
       <c r="G7" s="1">
-        <v>5688.5</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61719.0874</v>
+        <v>50468.6231</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1309.1544</v>
       </c>
       <c r="J7" s="1">
-        <v>10.5476</v>
+        <v>51777.7775</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.7491</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11309.1544</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61719.0874</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0177</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>11.6267</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5688.5</v>
       </c>
       <c r="F8" s="1">
         <v>642.8196</v>
       </c>
       <c r="G8" s="1">
-        <v>6331.3196</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>65794.8976</v>
       </c>
       <c r="I8" s="1">
-        <v>67473.87059999999</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6572</v>
+        <v>65794.8976</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57473.8706</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.1035</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7473.8706</v>
       </c>
-      <c r="O8" s="1">
-        <v>2526.1294</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75756.0713</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0563</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>12.3095</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>6331.3196</v>
       </c>
       <c r="F9" s="1">
         <v>555.1042</v>
       </c>
       <c r="G9" s="1">
-        <v>6886.4238</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>77530.8073</v>
       </c>
       <c r="I9" s="1">
-        <v>74306.9255</v>
+        <v>2526.1294</v>
       </c>
       <c r="J9" s="1">
-        <v>10.7904</v>
+        <v>80056.93670000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64306.9255</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.157</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6833.0549</v>
       </c>
-      <c r="O9" s="1">
-        <v>5693.0745</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90021.4656</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0497</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.3876</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6886.4238</v>
       </c>
       <c r="F10" s="1">
         <v>291.2216</v>
       </c>
       <c r="G10" s="1">
-        <v>7177.6454</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>91714.7692</v>
       </c>
       <c r="I10" s="1">
-        <v>78205.68399999999</v>
+        <v>5693.0745</v>
       </c>
       <c r="J10" s="1">
-        <v>10.8957</v>
+        <v>97407.8437</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68205.68399999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3898.7585</v>
       </c>
-      <c r="O10" s="1">
-        <v>11794.316</v>
-      </c>
-      <c r="P10" s="1">
-        <v>107387.6329</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0736</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.3141</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>7177.6454</v>
       </c>
       <c r="F11" s="1">
         <v>902.9297</v>
       </c>
       <c r="G11" s="1">
-        <v>8080.5751</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>95067.9133</v>
       </c>
       <c r="I11" s="1">
-        <v>90227.3798</v>
+        <v>11794.316</v>
       </c>
       <c r="J11" s="1">
-        <v>11.166</v>
+        <v>106862.2293</v>
       </c>
       <c r="K11" s="1">
+        <v>80227.3798</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.1774</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
-        <v>3875.9285</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-8145.7673</v>
+        <v>3718.6688</v>
       </c>
       <c r="O11" s="1">
-        <v>13648.5487</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>120675.7654</v>
+        <v>-8303.027</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.028</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.7208</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>8080.5751</v>
       </c>
       <c r="F12" s="1">
         <v>610.7144</v>
       </c>
       <c r="G12" s="1">
-        <v>8691.289500000001</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>110296.6174</v>
       </c>
       <c r="I12" s="1">
-        <v>98606.8703</v>
+        <v>13491.289</v>
       </c>
       <c r="J12" s="1">
-        <v>11.3455</v>
+        <v>123787.9064</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>88606.8703</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.9654</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8379.490400000001</v>
       </c>
-      <c r="O12" s="1">
-        <v>15269.0582</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133901.6832</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0247</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.2021</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8691.289500000001</v>
       </c>
       <c r="F13" s="1">
         <v>539.2047</v>
       </c>
       <c r="G13" s="1">
-        <v>9230.494199999999</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122794.0143</v>
       </c>
       <c r="I13" s="1">
-        <v>106264.7096</v>
+        <v>15111.7986</v>
       </c>
       <c r="J13" s="1">
-        <v>11.5124</v>
+        <v>137905.8129</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>96264.7096</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.076</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7657.8394</v>
       </c>
-      <c r="O13" s="1">
-        <v>17611.2189</v>
-      </c>
-      <c r="P13" s="1">
-        <v>148023.3332</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0286</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>13.9876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9230.494199999999</v>
       </c>
       <c r="F14" s="1">
         <v>-9230.494199999999</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128443.2499</v>
       </c>
       <c r="I14" s="1">
-        <v>106264.7096</v>
+        <v>17453.9592</v>
       </c>
       <c r="J14" s="1">
-        <v>11.5124</v>
+        <v>145897.2091</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>96264.7096</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.429</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128443.2499</v>
       </c>
-      <c r="O14" s="1">
-        <v>146054.4688</v>
-      </c>
-      <c r="P14" s="1">
-        <v>146054.4688</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0757</v>
+        <v>-0.0136</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.9499</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.7336</v>
+        <v>10.7815</v>
       </c>
       <c r="D3" s="1">
-        <v>11.4122</v>
+        <v>10.2348</v>
       </c>
       <c r="E3" s="1">
-        <v>11.4444</v>
+        <v>10.2991</v>
       </c>
       <c r="F3" s="1">
-        <v>11.4764</v>
+        <v>10.3624</v>
       </c>
       <c r="G3" s="1">
-        <v>11.5124</v>
+        <v>10.429</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.311</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2434</v>
+        <v>0.3286</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2201</v>
+        <v>0.3067</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2238</v>
+        <v>0.3104</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2275</v>
+        <v>0.3143</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2308</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1779</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1614</v>
+        <v>0.1834</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1558</v>
+        <v>0.1763</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1567</v>
+        <v>0.1774</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1576</v>
+        <v>0.1784</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1583</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.6338</v>
       </c>
       <c r="C6" s="4">
-        <v>1.3823</v>
+        <v>1.6809</v>
       </c>
       <c r="D6" s="4">
-        <v>1.2825</v>
+        <v>1.6241</v>
       </c>
       <c r="E6" s="4">
-        <v>1.2987</v>
+        <v>1.6357</v>
       </c>
       <c r="F6" s="4">
-        <v>1.315</v>
+        <v>1.6474</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3294</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4521</v>
+        <v>0.2462</v>
       </c>
       <c r="D7" s="3">
-        <v>0.47</v>
+        <v>0.4674</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4686</v>
+        <v>0.4658</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4672</v>
+        <v>0.4642</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4654</v>
+        <v>0.4621</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4375.3197</v>
+        <v>3971.9614</v>
       </c>
       <c r="D8" s="1">
-        <v>3649.1418</v>
+        <v>3527.7977</v>
       </c>
       <c r="E8" s="1">
-        <v>3722.9825</v>
+        <v>3590.1554</v>
       </c>
       <c r="F8" s="1">
-        <v>3798.5649</v>
+        <v>3653.7712</v>
       </c>
       <c r="G8" s="1">
-        <v>3875.9285</v>
+        <v>3718.6688</v>
       </c>
     </row>
   </sheetData>
